--- a/data/trans_orig/P1426-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6908AAE-A8FF-4D2E-8777-7171EEC5777F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09FAABDC-7078-4010-ABD3-5F20F80E4FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4423C2F6-98B9-4E01-A71C-C288380C1F2A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B59C003-0FE4-41F5-8B49-A54A0F8E74B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="297">
   <si>
     <t>Población con diagnóstico de hipoacusia en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,65%</t>
+    <t>5,54%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>2,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>98,36%</t>
   </si>
   <si>
-    <t>94,35%</t>
+    <t>94,46%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,7 +115,7 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,05%</t>
+    <t>97,42%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -124,55 +124,55 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -181,742 +181,754 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>95,6%</t>
   </si>
   <si>
-    <t>7,01%</t>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>95,86%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>95,69%</t>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E23DAE-27E5-4880-AFC1-E819A0F24458}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3D6FC5-C619-41EF-B967-2B363799E721}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1935,10 +1947,10 @@
         <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -1947,13 +1959,13 @@
         <v>21321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,13 +1980,13 @@
         <v>750349</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>693</v>
@@ -1983,13 +1995,13 @@
         <v>763127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>1376</v>
@@ -1998,13 +2010,13 @@
         <v>1513476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,7 +2072,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2075,10 +2087,10 @@
         <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -2090,10 +2102,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2102,13 +2114,13 @@
         <v>36437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,10 +2138,10 @@
         <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>983</v>
@@ -2141,10 +2153,10 @@
         <v>22</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>1878</v>
@@ -2153,13 +2165,13 @@
         <v>1963203</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2239,13 @@
         <v>52777</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -2242,13 +2254,13 @@
         <v>65865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -2257,13 +2269,13 @@
         <v>118642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2290,13 @@
         <v>3374002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>3236</v>
@@ -2293,28 +2305,28 @@
         <v>3489233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>6398</v>
       </c>
       <c r="N20" s="7">
-        <v>6863235</v>
+        <v>6863236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,7 +2368,7 @@
         <v>6505</v>
       </c>
       <c r="N21" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2370,7 +2382,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4AD02F-CBC0-48D9-83A0-845FFCE0F996}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C82D95-BC8E-4BB9-8C91-D7E3D6BAC2D1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2408,7 +2420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2515,13 +2527,13 @@
         <v>2685</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2530,13 +2542,13 @@
         <v>897</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2545,13 +2557,13 @@
         <v>3582</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2578,13 @@
         <v>113861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H5" s="7">
         <v>114</v>
@@ -2581,10 +2593,10 @@
         <v>112463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2596,13 +2608,13 @@
         <v>226324</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2682,13 @@
         <v>7495</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -2685,13 +2697,13 @@
         <v>10453</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2700,13 +2712,13 @@
         <v>17947</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,10 +2766,10 @@
         <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2837,13 @@
         <v>10723</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2840,13 +2852,13 @@
         <v>24641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -2858,10 +2870,10 @@
         <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2888,13 @@
         <v>1011708</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
         <v>955</v>
@@ -2891,13 +2903,13 @@
         <v>1018272</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>1896</v>
@@ -2909,10 +2921,10 @@
         <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,10 +2995,10 @@
         <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2995,13 +3007,13 @@
         <v>15424</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3010,13 +3022,13 @@
         <v>25502</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,10 +3046,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>722</v>
@@ -3046,13 +3058,13 @@
         <v>769587</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>1407</v>
@@ -3061,13 +3073,13 @@
         <v>1519061</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,7 +3135,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3135,13 +3147,13 @@
         <v>18056</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -3150,13 +3162,13 @@
         <v>20751</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -3165,13 +3177,13 @@
         <v>38807</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3198,13 @@
         <v>919511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>941</v>
@@ -3201,13 +3213,13 @@
         <v>1023028</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>1855</v>
@@ -3216,13 +3228,13 @@
         <v>1942539</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3302,13 @@
         <v>49037</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -3305,13 +3317,13 @@
         <v>72166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>115</v>
@@ -3320,13 +3332,13 @@
         <v>121203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3353,13 @@
         <v>3345313</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
         <v>3273</v>
@@ -3356,13 +3368,13 @@
         <v>3472376</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>6454</v>
@@ -3371,13 +3383,13 @@
         <v>6817689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,7 +3445,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3454,7 +3466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E2F669-2FEA-4BA5-BA48-C7744561DD23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB7D147-F018-4629-8EAC-F7C34474886F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3471,7 +3483,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3578,13 +3590,13 @@
         <v>4481</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -3593,13 +3605,13 @@
         <v>10581</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -3608,13 +3620,13 @@
         <v>15063</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3641,13 @@
         <v>97501</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>219</v>
@@ -3644,13 +3656,13 @@
         <v>120152</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>328</v>
@@ -3659,13 +3671,13 @@
         <v>217652</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3745,13 @@
         <v>38524</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H7" s="7">
         <v>80</v>
@@ -3748,13 +3760,13 @@
         <v>34296</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>145</v>
@@ -3763,13 +3775,13 @@
         <v>72821</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3796,13 @@
         <v>511299</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>914</v>
@@ -3799,13 +3811,13 @@
         <v>557642</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>1461</v>
@@ -3814,13 +3826,13 @@
         <v>1068940</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3900,13 @@
         <v>51706</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -3903,13 +3915,13 @@
         <v>50524</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -3918,13 +3930,13 @@
         <v>102230</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3951,13 @@
         <v>987542</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>1422</v>
@@ -3954,13 +3966,13 @@
         <v>1008073</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>2311</v>
@@ -3969,13 +3981,13 @@
         <v>1995615</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4055,13 @@
         <v>25754</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -4058,13 +4070,13 @@
         <v>30873</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -4073,13 +4085,13 @@
         <v>56628</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4106,13 @@
         <v>700026</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H14" s="7">
         <v>998</v>
@@ -4109,13 +4121,13 @@
         <v>842799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>1640</v>
@@ -4124,13 +4136,13 @@
         <v>1542824</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,7 +4198,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4198,13 +4210,13 @@
         <v>43595</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -4213,13 +4225,13 @@
         <v>50453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>135</v>
@@ -4228,13 +4240,13 @@
         <v>94049</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4261,13 @@
         <v>921808</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>1478</v>
@@ -4264,7 +4276,7 @@
         <v>1095617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>274</v>
@@ -4371,10 +4383,10 @@
         <v>282</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M19" s="7">
         <v>559</v>
@@ -4383,13 +4395,13 @@
         <v>340790</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4416,13 @@
         <v>3218174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H20" s="7">
         <v>5031</v>
@@ -4419,28 +4431,28 @@
         <v>3624282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>293</v>
       </c>
       <c r="M20" s="7">
         <v>8169</v>
       </c>
       <c r="N20" s="7">
-        <v>6842457</v>
+        <v>6842456</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4494,7 @@
         <v>8728</v>
       </c>
       <c r="N21" s="7">
-        <v>7183247</v>
+        <v>7183246</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -4496,7 +4508,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1426-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09FAABDC-7078-4010-ABD3-5F20F80E4FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBEEDCAD-95A0-496A-96B3-1314C60E9C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B59C003-0FE4-41F5-8B49-A54A0F8E74B5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6EB71E62-354A-459F-BEE8-DD04B896D775}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="299">
   <si>
     <t>Población con diagnóstico de hipoacusia en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,54%</t>
+    <t>6,4%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,732 +91,750 @@
     <t>0,84%</t>
   </si>
   <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
     <t>96,46%</t>
   </si>
   <si>
@@ -826,18 +844,12 @@
     <t>4,52%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
     <t>5,83%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
     <t>5,48%</t>
   </si>
   <si>
@@ -856,16 +868,10 @@
     <t>94,17%</t>
   </si>
   <si>
-    <t>96,53%</t>
-  </si>
-  <si>
     <t>95,6%</t>
   </si>
   <si>
     <t>94,52%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
   </si>
   <si>
     <t>95,55%</t>
@@ -1340,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3D6FC5-C619-41EF-B967-2B363799E721}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303B8EC7-D601-48D3-946F-ADB414C3C782}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1947,10 +1953,10 @@
         <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -1959,13 +1965,13 @@
         <v>21321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1986,13 @@
         <v>750349</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>693</v>
@@ -1995,13 +2001,13 @@
         <v>763127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>1376</v>
@@ -2010,13 +2016,13 @@
         <v>1513476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,7 +2078,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2087,10 +2093,10 @@
         <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -2102,10 +2108,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2114,13 +2120,13 @@
         <v>36437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,10 +2144,10 @@
         <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>983</v>
@@ -2153,10 +2159,10 @@
         <v>22</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>1878</v>
@@ -2165,13 +2171,13 @@
         <v>1963203</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,13 +2245,13 @@
         <v>52777</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -2254,13 +2260,13 @@
         <v>65865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -2269,13 +2275,13 @@
         <v>118642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,13 +2296,13 @@
         <v>3374002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>3236</v>
@@ -2305,28 +2311,28 @@
         <v>3489233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="M20" s="7">
         <v>6398</v>
       </c>
       <c r="N20" s="7">
-        <v>6863236</v>
+        <v>6863235</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,7 +2374,7 @@
         <v>6505</v>
       </c>
       <c r="N21" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2382,7 +2388,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C82D95-BC8E-4BB9-8C91-D7E3D6BAC2D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C3D35D-8BAD-42C8-887F-568C312759C3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2420,7 +2426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2527,13 +2533,13 @@
         <v>2685</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2542,13 +2548,13 @@
         <v>897</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2557,13 +2563,13 @@
         <v>3582</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2584,13 @@
         <v>113861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
         <v>114</v>
@@ -2593,10 +2599,10 @@
         <v>112463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2608,13 +2614,13 @@
         <v>226324</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2688,13 @@
         <v>7495</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -2697,13 +2703,13 @@
         <v>10453</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2712,13 +2718,13 @@
         <v>17947</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2739,13 @@
         <v>550759</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -2748,13 +2754,13 @@
         <v>549026</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>1072</v>
@@ -2763,13 +2769,13 @@
         <v>1099786</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2849,7 @@
         <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2855,10 +2861,10 @@
         <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -2870,10 +2876,10 @@
         <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,7 +2897,7 @@
         <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>149</v>
@@ -2909,7 +2915,7 @@
         <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>1896</v>
@@ -2921,7 +2927,7 @@
         <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>153</v>
@@ -3010,10 +3016,10 @@
         <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3022,13 +3028,13 @@
         <v>25502</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,10 +3052,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>722</v>
@@ -3058,13 +3064,13 @@
         <v>769587</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>1407</v>
@@ -3073,13 +3079,13 @@
         <v>1519061</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,7 +3141,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3147,13 +3153,13 @@
         <v>18056</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -3162,10 +3168,10 @@
         <v>20751</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>173</v>
@@ -3180,7 +3186,7 @@
         <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>174</v>
@@ -3201,10 +3207,10 @@
         <v>175</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
         <v>941</v>
@@ -3213,13 +3219,13 @@
         <v>1023028</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
         <v>1855</v>
@@ -3228,13 +3234,13 @@
         <v>1942539</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3308,13 @@
         <v>49037</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -3317,13 +3323,13 @@
         <v>72166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>115</v>
@@ -3332,13 +3338,13 @@
         <v>121203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3359,13 @@
         <v>3345313</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>3273</v>
@@ -3368,13 +3374,13 @@
         <v>3472376</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6454</v>
@@ -3383,13 +3389,13 @@
         <v>6817689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,7 +3451,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB7D147-F018-4629-8EAC-F7C34474886F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3165381A-A3F4-4A78-B307-959CE1526DC0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3489,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3590,13 +3596,13 @@
         <v>4481</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -3605,13 +3611,13 @@
         <v>10581</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -3620,13 +3626,13 @@
         <v>15063</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3647,13 @@
         <v>97501</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>219</v>
@@ -3656,13 +3662,13 @@
         <v>120152</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>328</v>
@@ -3671,13 +3677,13 @@
         <v>217652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3751,13 @@
         <v>38524</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>80</v>
@@ -3760,13 +3766,13 @@
         <v>34296</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>145</v>
@@ -3775,13 +3781,13 @@
         <v>72821</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3802,13 @@
         <v>511299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>914</v>
@@ -3811,13 +3817,13 @@
         <v>557642</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>1461</v>
@@ -3826,13 +3832,13 @@
         <v>1068940</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3906,13 @@
         <v>51706</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -3915,13 +3921,13 @@
         <v>50524</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -3930,13 +3936,13 @@
         <v>102230</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3957,13 @@
         <v>987542</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>1422</v>
@@ -3966,13 +3972,13 @@
         <v>1008073</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>2311</v>
@@ -3981,13 +3987,13 @@
         <v>1995615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4061,13 @@
         <v>25754</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -4070,13 +4076,13 @@
         <v>30873</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -4085,13 +4091,13 @@
         <v>56628</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4112,13 @@
         <v>700026</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
         <v>998</v>
@@ -4121,13 +4127,13 @@
         <v>842799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>1640</v>
@@ -4136,13 +4142,13 @@
         <v>1542824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,7 +4204,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4210,13 +4216,13 @@
         <v>43595</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -4225,13 +4231,13 @@
         <v>50453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>135</v>
@@ -4240,13 +4246,13 @@
         <v>94049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4267,13 @@
         <v>921808</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>151</v>
       </c>
       <c r="H17" s="7">
         <v>1478</v>
@@ -4276,13 +4282,13 @@
         <v>1095617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="M17" s="7">
         <v>2429</v>
@@ -4291,13 +4297,13 @@
         <v>2017424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4371,13 @@
         <v>164062</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>324</v>
@@ -4380,13 +4386,13 @@
         <v>176728</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M19" s="7">
         <v>559</v>
@@ -4395,13 +4401,13 @@
         <v>340790</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4422,13 @@
         <v>3218174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H20" s="7">
         <v>5031</v>
@@ -4431,13 +4437,13 @@
         <v>3624282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M20" s="7">
         <v>8169</v>
@@ -4446,13 +4452,13 @@
         <v>6842456</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,7 +4514,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1426-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBEEDCAD-95A0-496A-96B3-1314C60E9C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB83E8E-52C3-4F1F-8FE0-C56EDB77D89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6EB71E62-354A-459F-BEE8-DD04B896D775}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7DACA4E-6B6D-4CFA-8830-FDCE7D0B52EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="293">
   <si>
     <t>Población con diagnóstico de hipoacusia en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,64%</t>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,4%</t>
+    <t>5,65%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>2,93%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>98,36%</t>
   </si>
   <si>
-    <t>93,6%</t>
+    <t>94,35%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,7 +115,7 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,07%</t>
+    <t>97,05%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -124,19 +124,19 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>2,38%</t>
@@ -145,31 +145,31 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>3,46%</t>
+    <t>3,48%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>96,54%</t>
+    <t>96,52%</t>
   </si>
   <si>
     <t>98,47%</t>
@@ -181,450 +181,444 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,72%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>98,63%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
     <t>1,75%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>98,14%</t>
+    <t>98,93%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>97,89%</t>
-  </si>
-  <si>
     <t>98,55%</t>
   </si>
   <si>
@@ -634,79 +628,79 @@
     <t>4,39%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>8,09%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>91,91%</t>
   </si>
   <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>93,53%</t>
   </si>
   <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>5,35%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>7,51%</t>
@@ -715,19 +709,19 @@
     <t>92,99%</t>
   </si>
   <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>93,62%</t>
@@ -736,205 +730,193 @@
     <t>92,49%</t>
   </si>
   <si>
-    <t>94,65%</t>
+    <t>94,61%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>4,46%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>95,54%</t>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>5,18%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>4,31%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>94,82%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>95,69%</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303B8EC7-D601-48D3-946F-ADB414C3C782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFF4AD4-E660-4023-9D21-5238A46F37E2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1971,7 +1953,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +1968,13 @@
         <v>750349</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>693</v>
@@ -2001,10 +1983,10 @@
         <v>763127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>60</v>
@@ -2016,10 +1998,10 @@
         <v>1513476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>24</v>
@@ -2078,7 +2060,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2093,10 +2075,10 @@
         <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -2108,10 +2090,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2120,13 +2102,13 @@
         <v>36437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,10 +2126,10 @@
         <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>983</v>
@@ -2263,10 +2245,10 @@
         <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -2275,13 +2257,13 @@
         <v>118642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,13 +2278,13 @@
         <v>3374002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>3236</v>
@@ -2311,13 +2293,13 @@
         <v>3489233</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>6398</v>
@@ -2326,10 +2308,10 @@
         <v>6863235</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>105</v>
@@ -2388,7 +2370,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C3D35D-8BAD-42C8-887F-568C312759C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4AE06F-CFEB-4BA0-8FD0-B8EF30169403}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2426,7 +2408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2533,13 +2515,13 @@
         <v>2685</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2548,13 +2530,13 @@
         <v>897</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2563,13 +2545,13 @@
         <v>3582</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2566,13 @@
         <v>113861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>114</v>
@@ -2599,10 +2581,10 @@
         <v>112463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2614,13 +2596,13 @@
         <v>226324</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2670,13 @@
         <v>7495</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -2703,13 +2685,13 @@
         <v>10453</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2718,13 +2700,13 @@
         <v>17947</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2721,13 @@
         <v>550759</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -2754,13 +2736,13 @@
         <v>549026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>1072</v>
@@ -2769,13 +2751,13 @@
         <v>1099786</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2825,13 @@
         <v>10723</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2858,13 +2840,13 @@
         <v>24641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -2876,10 +2858,10 @@
         <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2876,13 @@
         <v>1011708</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>955</v>
@@ -2909,13 +2891,13 @@
         <v>1018272</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
         <v>1896</v>
@@ -2927,10 +2909,10 @@
         <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,10 +2983,10 @@
         <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3013,13 +2995,13 @@
         <v>15424</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -3028,13 +3010,13 @@
         <v>25502</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,10 +3034,10 @@
         <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>722</v>
@@ -3064,13 +3046,13 @@
         <v>769587</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>1407</v>
@@ -3079,13 +3061,13 @@
         <v>1519061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,7 +3123,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3153,13 +3135,13 @@
         <v>18056</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -3168,13 +3150,13 @@
         <v>20751</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -3183,13 +3165,13 @@
         <v>38807</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3186,13 @@
         <v>919511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
         <v>941</v>
@@ -3219,13 +3201,13 @@
         <v>1023028</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="M17" s="7">
         <v>1855</v>
@@ -3234,13 +3216,13 @@
         <v>1942539</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3290,13 @@
         <v>49037</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -3323,13 +3305,13 @@
         <v>72166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
         <v>115</v>
@@ -3338,13 +3320,13 @@
         <v>121203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,10 +3344,10 @@
         <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>3273</v>
@@ -3377,10 +3359,10 @@
         <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>6454</v>
@@ -3389,13 +3371,13 @@
         <v>6817689</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,7 +3433,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3472,7 +3454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3165381A-A3F4-4A78-B307-959CE1526DC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E12567-80B2-4BE0-B88F-64DB2ADBE393}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3489,7 +3471,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3596,13 +3578,13 @@
         <v>4481</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -3611,13 +3593,13 @@
         <v>10581</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -3626,13 +3608,13 @@
         <v>15063</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3629,13 @@
         <v>97501</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>219</v>
@@ -3662,13 +3644,13 @@
         <v>120152</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>328</v>
@@ -3677,13 +3659,13 @@
         <v>217652</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3733,13 @@
         <v>38524</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>80</v>
@@ -3766,13 +3748,13 @@
         <v>34296</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>145</v>
@@ -3781,13 +3763,13 @@
         <v>72821</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3784,13 @@
         <v>511299</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>914</v>
@@ -3817,13 +3799,13 @@
         <v>557642</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>1461</v>
@@ -3832,13 +3814,13 @@
         <v>1068940</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3888,13 @@
         <v>51706</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -3921,13 +3903,13 @@
         <v>50524</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -3936,13 +3918,13 @@
         <v>102230</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3939,13 @@
         <v>987542</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>1422</v>
@@ -3972,13 +3954,13 @@
         <v>1008073</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>2311</v>
@@ -3987,13 +3969,13 @@
         <v>1995615</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4043,13 @@
         <v>25754</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -4076,13 +4058,13 @@
         <v>30873</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -4091,13 +4073,13 @@
         <v>56628</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4094,13 @@
         <v>700026</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7">
         <v>998</v>
@@ -4127,13 +4109,13 @@
         <v>842799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>1640</v>
@@ -4142,13 +4124,13 @@
         <v>1542824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,7 +4186,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4216,13 +4198,13 @@
         <v>43595</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -4231,13 +4213,13 @@
         <v>50453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>35</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>135</v>
@@ -4246,13 +4228,13 @@
         <v>94049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4249,13 @@
         <v>921808</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>1478</v>
@@ -4282,13 +4264,13 @@
         <v>1095617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
         <v>2429</v>
@@ -4297,13 +4279,13 @@
         <v>2017424</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4353,13 @@
         <v>164062</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>324</v>
@@ -4386,13 +4368,13 @@
         <v>176728</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>559</v>
@@ -4401,13 +4383,13 @@
         <v>340790</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4404,13 @@
         <v>3218174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>5031</v>
@@ -4437,28 +4419,28 @@
         <v>3624282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>8169</v>
       </c>
       <c r="N20" s="7">
-        <v>6842456</v>
+        <v>6842457</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,7 +4482,7 @@
         <v>8728</v>
       </c>
       <c r="N21" s="7">
-        <v>7183246</v>
+        <v>7183247</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -4514,7 +4496,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1426-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB83E8E-52C3-4F1F-8FE0-C56EDB77D89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A75802DF-66E9-4265-945D-733622AB321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7DACA4E-6B6D-4CFA-8830-FDCE7D0B52EE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6E49B255-B06B-4B9D-AAE7-0A5428BFAEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="255">
   <si>
     <t>Población con diagnóstico de hipoacusia en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,856 +67,742 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,49%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
 </sst>
 </file>
@@ -1328,8 +1214,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFF4AD4-E660-4023-9D21-5238A46F37E2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44C833B-60D2-44C4-90AB-E06F9F9FA017}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1446,10 +1332,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>1902</v>
+        <v>15720</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1461,85 +1347,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>14043</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>1902</v>
+        <v>29763</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>120</v>
+        <v>660</v>
       </c>
       <c r="D5" s="7">
-        <v>113863</v>
+        <v>687749</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>638</v>
       </c>
       <c r="I5" s="7">
-        <v>111905</v>
+        <v>683007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>219</v>
+        <v>1298</v>
       </c>
       <c r="N5" s="7">
-        <v>225768</v>
+        <v>1370756</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,54 +1434,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1604,97 +1490,97 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>13818</v>
+        <v>13560</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7">
+        <v>17561</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
         <v>28</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>14043</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="7">
-        <v>24</v>
-      </c>
       <c r="N7" s="7">
-        <v>27861</v>
+        <v>31121</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>540</v>
+        <v>924</v>
       </c>
       <c r="D8" s="7">
-        <v>573886</v>
+        <v>1004387</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>539</v>
+        <v>922</v>
       </c>
       <c r="I8" s="7">
-        <v>571102</v>
+        <v>1011412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1079</v>
+        <v>1846</v>
       </c>
       <c r="N8" s="7">
-        <v>1144988</v>
+        <v>2015800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,153 +1589,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7274</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
-        <v>13560</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
       <c r="I10" s="7">
-        <v>17561</v>
+        <v>14047</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>31121</v>
+        <v>21321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>924</v>
+        <v>683</v>
       </c>
       <c r="D11" s="7">
-        <v>1004387</v>
+        <v>750349</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>922</v>
+        <v>693</v>
       </c>
       <c r="I11" s="7">
-        <v>1011412</v>
+        <v>763127</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
-        <v>1846</v>
+        <v>1376</v>
       </c>
       <c r="N11" s="7">
-        <v>2015799</v>
+        <v>1513476</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,153 +1744,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>7274</v>
+        <v>16222</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>14047</v>
+        <v>20215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>21321</v>
+        <v>36437</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>683</v>
+        <v>895</v>
       </c>
       <c r="D14" s="7">
-        <v>750349</v>
+        <v>931517</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
-        <v>693</v>
+        <v>983</v>
       </c>
       <c r="I14" s="7">
-        <v>763127</v>
+        <v>1031686</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>1376</v>
+        <v>1878</v>
       </c>
       <c r="N14" s="7">
-        <v>1513476</v>
+        <v>1963203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,153 +1899,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7">
-        <v>16222</v>
+        <v>52777</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I16" s="7">
-        <v>20215</v>
+        <v>65865</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="N16" s="7">
-        <v>36437</v>
+        <v>118642</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>895</v>
+        <v>3162</v>
       </c>
       <c r="D17" s="7">
-        <v>931517</v>
+        <v>3374002</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>983</v>
+        <v>3236</v>
       </c>
       <c r="I17" s="7">
-        <v>1031686</v>
+        <v>3489233</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>1878</v>
+        <v>6398</v>
       </c>
       <c r="N17" s="7">
-        <v>1963203</v>
+        <v>6863235</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,217 +2054,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6981877</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>47</v>
-      </c>
-      <c r="D19" s="7">
-        <v>52777</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="7">
-        <v>60</v>
-      </c>
-      <c r="I19" s="7">
-        <v>65865</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M19" s="7">
-        <v>107</v>
-      </c>
-      <c r="N19" s="7">
-        <v>118642</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="A19" t="s">
         <v>98</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3162</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3374002</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3236</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3489233</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6398</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6863235</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2391,8 +2121,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4AE06F-CFEB-4BA0-8FD0-B8EF30169403}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE95364D-4AC6-40EF-B61C-AE3D6B3C235F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2408,7 +2138,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2509,100 +2239,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>2685</v>
+        <v>10179</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>897</v>
+        <v>11350</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>3582</v>
+        <v>21529</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>641</v>
+      </c>
+      <c r="D5" s="7">
+        <v>664621</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="7">
-        <v>113861</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7">
+        <v>655</v>
+      </c>
+      <c r="I5" s="7">
+        <v>661489</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="7">
-        <v>112463</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="M5" s="7">
-        <v>224</v>
+        <v>1296</v>
       </c>
       <c r="N5" s="7">
-        <v>226324</v>
+        <v>1326110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,153 +2341,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>7495</v>
+        <v>10723</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>10453</v>
+        <v>24641</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>17947</v>
+        <v>35365</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>531</v>
+        <v>941</v>
       </c>
       <c r="D8" s="7">
-        <v>550759</v>
+        <v>1011708</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H8" s="7">
-        <v>541</v>
+        <v>955</v>
       </c>
       <c r="I8" s="7">
-        <v>549026</v>
+        <v>1018272</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
-        <v>1072</v>
+        <v>1896</v>
       </c>
       <c r="N8" s="7">
-        <v>1099786</v>
+        <v>2029979</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,153 +2496,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>10723</v>
+        <v>10078</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>24641</v>
+        <v>15424</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>35365</v>
+        <v>25502</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>941</v>
+        <v>685</v>
       </c>
       <c r="D11" s="7">
-        <v>1011708</v>
+        <v>749474</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H11" s="7">
-        <v>955</v>
+        <v>722</v>
       </c>
       <c r="I11" s="7">
-        <v>1018272</v>
+        <v>769587</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
-        <v>1896</v>
+        <v>1407</v>
       </c>
       <c r="N11" s="7">
-        <v>2029979</v>
+        <v>1519061</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,153 +2651,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>10078</v>
+        <v>18056</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>15424</v>
+        <v>20751</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>25502</v>
+        <v>38807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>685</v>
+        <v>914</v>
       </c>
       <c r="D14" s="7">
-        <v>749474</v>
+        <v>919511</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>722</v>
+        <v>941</v>
       </c>
       <c r="I14" s="7">
-        <v>769587</v>
+        <v>1023028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>1407</v>
+        <v>1855</v>
       </c>
       <c r="N14" s="7">
-        <v>1519061</v>
+        <v>1942539</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,153 +2806,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>18056</v>
+        <v>49037</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="H16" s="7">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I16" s="7">
-        <v>20751</v>
+        <v>72166</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="N16" s="7">
-        <v>38807</v>
+        <v>121203</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>914</v>
+        <v>3181</v>
       </c>
       <c r="D17" s="7">
-        <v>919511</v>
+        <v>3345313</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
-        <v>941</v>
+        <v>3273</v>
       </c>
       <c r="I17" s="7">
-        <v>1023028</v>
+        <v>3472376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="M17" s="7">
-        <v>1855</v>
+        <v>6454</v>
       </c>
       <c r="N17" s="7">
-        <v>1942539</v>
+        <v>6817689</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,217 +2961,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>50</v>
-      </c>
-      <c r="D19" s="7">
-        <v>49037</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="7">
-        <v>65</v>
-      </c>
-      <c r="I19" s="7">
-        <v>72166</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="7">
-        <v>115</v>
-      </c>
-      <c r="N19" s="7">
-        <v>121203</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3181</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3345313</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3273</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3472376</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6454</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6817689</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3454,8 +3028,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E12567-80B2-4BE0-B88F-64DB2ADBE393}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED351A5-2C53-48AB-9CD9-B6B08677EF10}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3471,7 +3045,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3572,100 +3146,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D4" s="7">
-        <v>4481</v>
+        <v>40878</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="I4" s="7">
-        <v>10581</v>
+        <v>41676</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="N4" s="7">
-        <v>15063</v>
+        <v>82555</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>109</v>
+        <v>656</v>
       </c>
       <c r="D5" s="7">
-        <v>97501</v>
+        <v>594563</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
-        <v>219</v>
+        <v>1133</v>
       </c>
       <c r="I5" s="7">
-        <v>120152</v>
+        <v>633094</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
-        <v>328</v>
+        <v>1789</v>
       </c>
       <c r="N5" s="7">
-        <v>217652</v>
+        <v>1227657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,153 +3248,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674770</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310212</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7">
-        <v>38524</v>
+        <v>48115</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="H7" s="7">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I7" s="7">
-        <v>34296</v>
+        <v>46066</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="M7" s="7">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="N7" s="7">
-        <v>72821</v>
+        <v>94181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>547</v>
+        <v>889</v>
       </c>
       <c r="D8" s="7">
-        <v>511299</v>
+        <v>1144749</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
-        <v>914</v>
+        <v>1422</v>
       </c>
       <c r="I8" s="7">
-        <v>557642</v>
+        <v>911211</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
-        <v>1461</v>
+        <v>2311</v>
       </c>
       <c r="N8" s="7">
-        <v>1068940</v>
+        <v>2055961</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,153 +3403,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>591938</v>
+        <v>957277</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1141761</v>
+        <v>2150142</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>51706</v>
+        <v>24248</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="I10" s="7">
-        <v>50524</v>
+        <v>28085</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="N10" s="7">
-        <v>102230</v>
+        <v>52333</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>889</v>
+        <v>642</v>
       </c>
       <c r="D11" s="7">
-        <v>987542</v>
+        <v>677545</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
-        <v>1422</v>
+        <v>998</v>
       </c>
       <c r="I11" s="7">
-        <v>1008073</v>
+        <v>904650</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
-        <v>2311</v>
+        <v>1640</v>
       </c>
       <c r="N11" s="7">
-        <v>1995615</v>
+        <v>1582195</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,153 +3558,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>673</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>701793</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1058597</v>
+        <v>932735</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1719</v>
       </c>
       <c r="N12" s="7">
-        <v>2097845</v>
+        <v>1634528</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7">
-        <v>25754</v>
+        <v>40895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7">
-        <v>30873</v>
+        <v>44573</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="N13" s="7">
-        <v>56628</v>
+        <v>85468</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>642</v>
+        <v>951</v>
       </c>
       <c r="D14" s="7">
-        <v>700026</v>
+        <v>885936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
-        <v>998</v>
+        <v>1478</v>
       </c>
       <c r="I14" s="7">
-        <v>842799</v>
+        <v>1046549</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
-        <v>1640</v>
+        <v>2429</v>
       </c>
       <c r="N14" s="7">
-        <v>1542824</v>
+        <v>1932485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,153 +3713,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>673</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>725780</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1558</v>
       </c>
       <c r="I15" s="7">
-        <v>873672</v>
+        <v>1091122</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1719</v>
+        <v>2564</v>
       </c>
       <c r="N15" s="7">
-        <v>1599452</v>
+        <v>2017953</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="D16" s="7">
-        <v>43595</v>
+        <v>154136</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="I16" s="7">
-        <v>50453</v>
+        <v>160400</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
-        <v>135</v>
+        <v>559</v>
       </c>
       <c r="N16" s="7">
-        <v>94049</v>
+        <v>314536</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>951</v>
+        <v>3138</v>
       </c>
       <c r="D17" s="7">
-        <v>921808</v>
+        <v>3302794</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
-        <v>1478</v>
+        <v>5031</v>
       </c>
       <c r="I17" s="7">
-        <v>1095617</v>
+        <v>3495504</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
-        <v>2429</v>
+        <v>8169</v>
       </c>
       <c r="N17" s="7">
-        <v>2017424</v>
+        <v>6798298</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,217 +3868,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3373</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3456930</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1558</v>
+        <v>5355</v>
       </c>
       <c r="I18" s="7">
-        <v>1146070</v>
+        <v>3655904</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2564</v>
+        <v>8728</v>
       </c>
       <c r="N18" s="7">
-        <v>2111473</v>
+        <v>7112834</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>235</v>
-      </c>
-      <c r="D19" s="7">
-        <v>164062</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H19" s="7">
-        <v>324</v>
-      </c>
-      <c r="I19" s="7">
-        <v>176728</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="M19" s="7">
-        <v>559</v>
-      </c>
-      <c r="N19" s="7">
-        <v>340790</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3138</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3218174</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5031</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3624282</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8169</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6842457</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3373</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3382236</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5355</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3801010</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8728</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7183247</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
